--- a/UFCFE6-15-3 ProfExp 2019-20 Micah Hobby Mego Student Workbook.xlsx
+++ b/UFCFE6-15-3 ProfExp 2019-20 Micah Hobby Mego Student Workbook.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="8"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="How to use" sheetId="1" state="visible" r:id="rId2"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="383">
   <si>
     <t xml:space="preserve">How to use this workbook:</t>
   </si>
@@ -987,17 +987,19 @@
     <t xml:space="preserve">01-11-2019</t>
   </si>
   <si>
-    <t xml:space="preserve">Target day to start working on the support queue</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This week I was assigned to work on the support queue, it is a role that is shared among all the members of the development team for a week at a time. To undertake this position I needed a baseline knowledge of the systems.</t>
+    <t xml:space="preserve">This reflective log was created on the week I received my 3 months review, It includes my notes from the meeting as well as the other notable activities from that week</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Target day to start working on the support queue. A sole developer every week must find solutions to clients raised tickets.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This week I was assigned to work on the support queue, it is a role that is shared among all the members of the development team for a week at a time. To undertake this position I needed a baseline knowledge of the systems. There is only 1 person on support at a time so being able to deal with pressure is Important</t>
   </si>
   <si>
     <t xml:space="preserve">15-11-2019</t>
   </si>
   <si>
-    <t xml:space="preserve">Tasked with taking on the dev support queue.
-It consists of responding to clients requests for assistance when something on their website breaks, that includes modules, system configuration, server permissions and configurations, customisations, APIs .                                   
+    <t xml:space="preserve">Tasked with taking on the dev support queue. It consists of responding to clients requests for assistance when something on their website breaks, that includes modules, system configuration, server permissions and configurations, customisations, APIs .                                   
 I had to extract the necessary  information and requirements from the client, as well as their intended outcome and any external circumstances that might have led to the issue occurring in the first place.
 Then proceed to explore options and replicate the issues on a separate test environment.
 Once the problem is diagnosed, I attempted to fix the problem, I then my findings to the client to ensure work is correct.
@@ -1006,10 +1008,20 @@
   <si>
     <t xml:space="preserve">I got to Work on a number of tickets and gained invaluable knowledge into the position workflow and activities related to support. Started the week with 6 tickets and managed to clear the dev pool queue so was quite pleased. Manager expressed he was happy with the quality of my work as a junior developer.
 Did lots of work on debugging, testing, exploration of solution, requirements gathering, drupal and civi module/extension development, working with other peoples code, documentation, bash scripts and server configuration.
-Working with hooks and custom code, debugging of systems core code.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I felt that this was a great opportunity to contribute and </t>
+Working with hooks and custom code, debugging of systems core code.                  Worked on:
+HBA custom module fix: diagnosing and resolved custom module that was experiencing problems in storing and updating registered but not accepted organisation members, this was a well documented custom module by the team and it was very useful for better understand the module development framework and process.
+LAA server configuration: During the latest civi upgrade some templates had been neglected and caused sections of the site to become unusable, managed to diagnose and resolve the issue by patching them to the latest version
+Cruse module fix: very complex module with dependencies on other modules, diagnosing a failing client lookup using a postcode, lots of learning material, cover JS, php, and MYSQL all wrapped up in separate modules using lots of drupal and civi api and function calls, proved very difficult to diagnose and debug and received help.
+Dyslex debugging core code and diagnosing logs and watchdogs.
+R and C working of a requirements doc, implementing quick fixes for a live site.
+BAM Fixed server configuration relating to fix  a custom module developed broken dependencies that were causing disruption to customer billing workflow, gathering client requirements, replicating and  diagnosing the issue.
+Managed to clear the dev pool queue so was pleased.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I felt that this was a great opportunity to contribute and I really felt I was pulling my weight. I managed to keep pace with other people who had previously worked on support, and I finished the week feeling like I had aco,plished something.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This was a great start to my time on support, it provided a boost to my understanding of the framework and helped me practice Smarty, PHP and JS. After this experience I grew to love working on the support queue and have made requests to my manager to allow me work there again.  I feel I also greatly improved my time management skills as when new tickets came in it was important to know what to prioritize and for how long.</t>
   </si>
   <si>
     <t xml:space="preserve">Add more lines as you need to….</t>
@@ -1337,7 +1349,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="9">
+  <numFmts count="8">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="General"/>
@@ -1346,7 +1358,6 @@
     <numFmt numFmtId="169" formatCode="dd/mm/yyyy"/>
     <numFmt numFmtId="170" formatCode="0.00"/>
     <numFmt numFmtId="171" formatCode="h:mm"/>
-    <numFmt numFmtId="172" formatCode="dd/mm/yy"/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -2324,7 +2335,7 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="172" fontId="13" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="168" fontId="13" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
@@ -2521,10 +2532,10 @@
       <selection pane="topLeft" activeCell="E22" activeCellId="0" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="79.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="79.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="65.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="4" style="0" width="8.71"/>
   </cols>
@@ -2706,11 +2717,11 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="33.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="33.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="15.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="12.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="13.7"/>
@@ -2721,7 +2732,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="166" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2731,12 +2742,12 @@
     </row>
     <row r="3" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="15" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="15" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2763,36 +2774,36 @@
         <v>0</v>
       </c>
       <c r="B7" s="168" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="C7" s="168" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="D7" s="168" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="E7" s="168" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="F7" s="168" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="G7" s="168" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="H7" s="168" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="38.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="169" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B8" s="169" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="C8" s="164" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="D8" s="169" t="n">
         <v>10</v>
@@ -2804,21 +2815,21 @@
         <v>8</v>
       </c>
       <c r="G8" s="164" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="H8" s="164" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="70" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="B9" s="37" t="n">
         <v>0</v>
       </c>
       <c r="C9" s="38" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D9" s="37" t="n">
         <v>0</v>
@@ -2841,13 +2852,13 @@
     </row>
     <row r="10" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="70" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="B10" s="37" t="n">
         <v>0</v>
       </c>
       <c r="C10" s="38" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="D10" s="37" t="n">
         <v>0</v>
@@ -2870,13 +2881,13 @@
     </row>
     <row r="11" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="70" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="B11" s="37" t="n">
         <v>0</v>
       </c>
       <c r="C11" s="38" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="D11" s="37" t="n">
         <v>0</v>
@@ -2899,13 +2910,13 @@
     </row>
     <row r="12" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="70" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="B12" s="37" t="n">
         <v>0</v>
       </c>
       <c r="C12" s="38" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="D12" s="37" t="n">
         <v>0</v>
@@ -2928,7 +2939,7 @@
     </row>
     <row r="13" customFormat="false" ht="20.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="70" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="B13" s="37" t="n">
         <v>0</v>
@@ -2957,13 +2968,13 @@
     </row>
     <row r="14" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="70" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="B14" s="37" t="n">
         <v>0</v>
       </c>
       <c r="C14" s="38" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="D14" s="37" t="n">
         <v>0</v>
@@ -2986,13 +2997,13 @@
     </row>
     <row r="15" customFormat="false" ht="16.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="70" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="B15" s="37" t="n">
         <v>0</v>
       </c>
       <c r="C15" s="38" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="D15" s="37" t="n">
         <v>0</v>
@@ -3015,7 +3026,7 @@
     </row>
     <row r="16" customFormat="false" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="70" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="B16" s="37" t="n">
         <v>0</v>
@@ -3044,13 +3055,13 @@
     </row>
     <row r="17" customFormat="false" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="70" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="B17" s="37" t="n">
         <v>0</v>
       </c>
       <c r="C17" s="38" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="D17" s="37" t="n">
         <v>0</v>
@@ -3073,13 +3084,13 @@
     </row>
     <row r="18" customFormat="false" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="70" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="B18" s="37" t="n">
         <v>0</v>
       </c>
       <c r="C18" s="38" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="D18" s="37" t="n">
         <v>0</v>
@@ -3102,7 +3113,7 @@
     </row>
     <row r="19" customFormat="false" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="70" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="B19" s="37" t="n">
         <v>0</v>
@@ -3131,7 +3142,7 @@
     </row>
     <row r="20" customFormat="false" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="70" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="B20" s="37" t="n">
         <v>0</v>
@@ -3160,7 +3171,7 @@
     </row>
     <row r="21" customFormat="false" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="70" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="B21" s="37" t="n">
         <v>0</v>
@@ -3189,7 +3200,7 @@
     </row>
     <row r="22" customFormat="false" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="70" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="B22" s="37" t="n">
         <v>0</v>
@@ -3218,7 +3229,7 @@
     </row>
     <row r="23" customFormat="false" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="70" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="B23" s="37" t="n">
         <v>0</v>
@@ -3247,7 +3258,7 @@
     </row>
     <row r="24" customFormat="false" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="70" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="B24" s="37" t="n">
         <v>0</v>
@@ -3276,7 +3287,7 @@
     </row>
     <row r="25" customFormat="false" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="70" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="B25" s="37" t="n">
         <v>0</v>
@@ -3305,7 +3316,7 @@
     </row>
     <row r="26" customFormat="false" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="70" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="B26" s="37" t="n">
         <v>0</v>
@@ -3334,7 +3345,7 @@
     </row>
     <row r="27" customFormat="false" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="70" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B27" s="37" t="n">
         <v>0</v>
@@ -3363,7 +3374,7 @@
     </row>
     <row r="28" customFormat="false" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="70" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="B28" s="37" t="n">
         <v>0</v>
@@ -3392,7 +3403,7 @@
     </row>
     <row r="29" customFormat="false" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="70" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B29" s="37" t="n">
         <v>0</v>
@@ -3421,7 +3432,7 @@
     </row>
     <row r="30" customFormat="false" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="70" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="B30" s="37" t="n">
         <v>0</v>
@@ -3450,7 +3461,7 @@
     </row>
     <row r="31" customFormat="false" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="70" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="B31" s="37" t="n">
         <v>0</v>
@@ -3479,7 +3490,7 @@
     </row>
     <row r="32" customFormat="false" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="37" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="B32" s="37" t="n">
         <v>0</v>
@@ -3508,13 +3519,13 @@
     </row>
     <row r="33" customFormat="false" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="37" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="B33" s="37" t="n">
         <v>0</v>
       </c>
       <c r="C33" s="38" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="D33" s="37" t="n">
         <v>0</v>
@@ -3537,13 +3548,13 @@
     </row>
     <row r="34" customFormat="false" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="37" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="B34" s="37" t="n">
         <v>0</v>
       </c>
       <c r="C34" s="38" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="D34" s="37" t="n">
         <v>0</v>
@@ -3566,7 +3577,7 @@
     </row>
     <row r="35" customFormat="false" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="37" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="B35" s="37" t="n">
         <v>0</v>
@@ -3595,13 +3606,13 @@
     </row>
     <row r="36" customFormat="false" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="37" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="B36" s="37" t="n">
         <v>0</v>
       </c>
       <c r="C36" s="38" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="D36" s="37" t="n">
         <v>0</v>
@@ -3624,7 +3635,7 @@
     </row>
     <row r="37" customFormat="false" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="37" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="B37" s="37" t="n">
         <v>0</v>
@@ -3653,7 +3664,7 @@
     </row>
     <row r="38" customFormat="false" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="37" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="B38" s="37" t="n">
         <v>0</v>
@@ -3682,7 +3693,7 @@
     </row>
     <row r="39" customFormat="false" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="37" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="B39" s="37" t="n">
         <v>0</v>
@@ -3711,7 +3722,7 @@
     </row>
     <row r="40" customFormat="false" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="37" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="B40" s="37" t="n">
         <v>0</v>
@@ -3740,7 +3751,7 @@
     </row>
     <row r="41" customFormat="false" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="37" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="B41" s="37" t="n">
         <v>0</v>
@@ -3769,7 +3780,7 @@
     </row>
     <row r="42" customFormat="false" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="37" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="B42" s="37" t="n">
         <v>0</v>
@@ -3798,7 +3809,7 @@
     </row>
     <row r="43" customFormat="false" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="37" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="B43" s="37" t="n">
         <v>0</v>
@@ -3827,7 +3838,7 @@
     </row>
     <row r="44" customFormat="false" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="37" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="B44" s="37" t="n">
         <v>0</v>
@@ -3856,7 +3867,7 @@
     </row>
     <row r="45" customFormat="false" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="37" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="B45" s="37" t="n">
         <v>0</v>
@@ -3885,7 +3896,7 @@
     </row>
     <row r="46" customFormat="false" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="37" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="B46" s="37" t="n">
         <v>0</v>
@@ -3914,7 +3925,7 @@
     </row>
     <row r="47" customFormat="false" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="37" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="B47" s="37" t="n">
         <v>0</v>
@@ -4108,14 +4119,14 @@
       <selection pane="topLeft" activeCell="G5" activeCellId="0" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="9.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="7.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="7.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="23.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="42.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="29.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="42.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="42.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="8" style="0" width="9.29"/>
   </cols>
   <sheetData>
@@ -5927,16 +5938,16 @@
       <selection pane="topLeft" activeCell="Q11" activeCellId="0" sqref="Q11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="22.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="47.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="35"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="38.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="19.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="19.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="33.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="36.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="14" style="0" width="16.71"/>
@@ -6644,7 +6655,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="46.42"/>
@@ -8459,7 +8470,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="29.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.71"/>
@@ -10286,15 +10297,15 @@
       <selection pane="topLeft" activeCell="G11" activeCellId="0" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="46.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="50.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="9.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="37.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="28.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="28.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="8" style="0" width="9"/>
   </cols>
   <sheetData>
@@ -12080,9 +12091,9 @@
       <selection pane="topLeft" activeCell="G13" activeCellId="0" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="18.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="20.42"/>
@@ -13947,11 +13958,11 @@
   </sheetPr>
   <dimension ref="A1:I130"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F21" activeCellId="0" sqref="F21"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E18" activeCellId="0" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="25.57"/>
@@ -13959,7 +13970,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="11.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="37.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="39.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="41.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="41.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="33.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="9" style="0" width="9"/>
   </cols>
@@ -14341,11 +14352,11 @@
       <c r="C19" s="153" t="n">
         <v>0</v>
       </c>
-      <c r="D19" s="153" t="n">
-        <v>0</v>
-      </c>
-      <c r="E19" s="153" t="n">
-        <v>0</v>
+      <c r="D19" s="153" t="s">
+        <v>267</v>
+      </c>
+      <c r="E19" s="153" t="s">
+        <v>268</v>
       </c>
       <c r="F19" s="153" t="n">
         <v>0</v>
@@ -14365,25 +14376,25 @@
         <v>267</v>
       </c>
       <c r="B20" s="153" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C20" s="153" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D20" s="153" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E20" s="153" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="F20" s="153" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="G20" s="153" t="s">
-        <v>273</v>
-      </c>
-      <c r="H20" s="153" t="n">
-        <v>0</v>
+        <v>274</v>
+      </c>
+      <c r="H20" s="153" t="s">
+        <v>275</v>
       </c>
       <c r="I20" s="3" t="n">
         <v>0</v>
@@ -14594,7 +14605,7 @@
     </row>
     <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="14" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B28" s="16"/>
       <c r="C28" s="16"/>
@@ -14651,7 +14662,7 @@
     </row>
     <row r="33" customFormat="false" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="91" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="B33" s="81" t="n">
         <v>0</v>
@@ -14771,19 +14782,19 @@
         <v>252</v>
       </c>
       <c r="B38" s="85" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C38" s="85" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="D38" s="85" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E38" s="85" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="F38" s="163" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="G38" s="16"/>
       <c r="H38" s="16"/>
@@ -14791,22 +14802,22 @@
     </row>
     <row r="39" customFormat="false" ht="124.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="162" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="B39" s="114" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="C39" s="85" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="D39" s="163" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="E39" s="163" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="F39" s="115" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="G39" s="16"/>
       <c r="H39" s="16"/>
@@ -14817,19 +14828,19 @@
         <v>254</v>
       </c>
       <c r="B40" s="85" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="C40" s="114" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="D40" s="115" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="E40" s="115" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="F40" s="115" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="G40" s="16"/>
       <c r="H40" s="16"/>
@@ -15851,11 +15862,11 @@
   </sheetPr>
   <dimension ref="A1:M21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="K18" activeCellId="0" sqref="K18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.99"/>
@@ -15874,7 +15885,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="13" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="B1" s="13" t="n">
         <v>0</v>
@@ -15908,7 +15919,7 @@
     </row>
     <row r="3" customFormat="false" ht="14.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="15" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="B3" s="15" t="n">
         <v>0</v>
@@ -15925,7 +15936,7 @@
     </row>
     <row r="4" customFormat="false" ht="14.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="15" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="B4" s="15" t="n">
         <v>0</v>
@@ -15960,75 +15971,75 @@
     <row r="6" customFormat="false" ht="16.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="7" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="37" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="B7" s="37" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C7" s="37" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="D7" s="37" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="E7" s="37" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="F7" s="37" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="G7" s="37" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="H7" s="37" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="I7" s="37" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="J7" s="37" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="K7" s="37" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="L7" s="37" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="56.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="164" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="B8" s="164" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C8" s="164" t="n">
         <v>2014</v>
       </c>
       <c r="D8" s="164" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="E8" s="164" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="F8" s="164" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="G8" s="164" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="H8" s="164" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="I8" s="165" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="J8" s="164" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="K8" s="164" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="L8" s="164" t="n">
         <v>0</v>
@@ -16528,7 +16539,7 @@
     </row>
     <row r="21" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="105" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
   </sheetData>
